--- a/ONCHO/OEM/Congo/cg_oncho_oem_full_202112.xlsx
+++ b/ONCHO/OEM/Congo/cg_oncho_oem_full_202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="162">
   <si>
     <t>type</t>
   </si>
@@ -234,25 +234,19 @@
     <t>${consent} = 'Oui' and ${is_natif} = 'Non' and ${add_more} = 'Oui'</t>
   </si>
   <si>
-    <t>num_biopsie</t>
-  </si>
-  <si>
-    <t>Numéro Biopsi</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>mfs_1</t>
-  </si>
-  <si>
-    <t>Moyenne Mfs 1er prélèvement</t>
-  </si>
-  <si>
-    <t>mfs_2</t>
-  </si>
-  <si>
-    <t>Moyenne Mfs 2ème prélèvement</t>
+    <t>text</t>
+  </si>
+  <si>
+    <t>filiation</t>
+  </si>
+  <si>
+    <t>Filiation</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>Occupation</t>
   </si>
   <si>
     <t>select_one locatlisation</t>
@@ -288,9 +282,6 @@
     <t>${consent} = 'Non' and ${add_more} = 'Oui'</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>AdditionalNotes</t>
   </si>
   <si>
@@ -504,10 +495,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Dec 2021) Cartographie d'Elimination de Onchocercose</t>
-  </si>
-  <si>
-    <t>cg_oncho_oem_full_202112</t>
+    <t>(Dec 2021) CEO - 1 Formulaire principal V2</t>
+  </si>
+  <si>
+    <t>cg_oncho_oem_full_202112_v2</t>
   </si>
   <si>
     <t>French</t>
@@ -518,12 +509,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -533,13 +524,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -562,8 +546,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -571,7 +564,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,15 +578,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -608,67 +593,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,17 +630,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,7 +661,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,7 +712,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +736,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,19 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,139 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,6 +951,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -993,16 +985,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,30 +1015,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1074,152 +1051,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1229,7 +1206,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1240,20 +1216,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1262,19 +1233,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,7 +1565,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1624,43 +1586,43 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:13">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1668,74 +1630,74 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1743,102 +1705,102 @@
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" s="18" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" s="18" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A8" s="3"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" s="18" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A9" s="3"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -1863,50 +1825,50 @@
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" s="18" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" ht="28.5" spans="1:10">
       <c r="A14" t="s">
@@ -1918,10 +1880,10 @@
       <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1941,10 +1903,10 @@
       <c r="G15" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1964,10 +1926,10 @@
       <c r="G16" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1975,13 +1937,13 @@
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="17" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1990,10 +1952,10 @@
       <c r="G17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2007,10 +1969,10 @@
       <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2033,211 +1995,201 @@
       <c r="G19" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:10">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20" t="s">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" s="18" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="22" t="s">
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A22" s="3"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
+      <c r="C23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20" t="s">
+      <c r="I23" s="16"/>
+      <c r="J23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" s="18" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A23" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" s="18" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
+      <c r="B24" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20" t="s">
+      <c r="I24" s="16"/>
+      <c r="J24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" ht="28.5" spans="1:10">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" ht="28.5" spans="1:10">
       <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
         <v>86</v>
       </c>
-      <c r="B26" t="s">
+      <c r="H26" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="20"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="J28" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3"/>
-      <c r="H29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="16"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3"/>
-      <c r="H30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="16"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
-      </c>
-      <c r="J31" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="J32" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2266,842 +2218,842 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:5">
+      <c r="A6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:5">
+      <c r="A7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" s="4" customFormat="1" spans="1:5">
+      <c r="A9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:5">
+      <c r="A10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" s="4" customFormat="1" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" s="5" customFormat="1" spans="1:5">
-      <c r="A10" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:5">
-      <c r="A11" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" s="5" customFormat="1" spans="1:5">
-      <c r="A12" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" s="5" customFormat="1" spans="1:5">
-      <c r="A13" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" s="4" customFormat="1" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" s="5" customFormat="1" spans="1:5">
-      <c r="A14" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" s="4" customFormat="1" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" s="5" customFormat="1" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:5">
-      <c r="A16" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="1:5">
-      <c r="A17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:5">
-      <c r="A18" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" s="4" customFormat="1" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:5">
-      <c r="A19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:5">
+      <c r="A22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="1:5">
-      <c r="A21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" s="4" customFormat="1" spans="1:5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" s="4" customFormat="1" spans="1:5">
-      <c r="A22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="D24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" s="4" customFormat="1" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="D25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:5">
+      <c r="A27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" s="4" customFormat="1" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="D27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:5">
+      <c r="A28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:5">
+      <c r="A29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="1:5">
-      <c r="A27" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="D30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:5">
+      <c r="A31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:5">
+      <c r="A32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" s="4" customFormat="1" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" s="4" customFormat="1" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" s="4" customFormat="1" spans="1:5">
-      <c r="A30" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" s="4" customFormat="1" spans="1:5">
-      <c r="A31" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" s="4" customFormat="1" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" s="4" customFormat="1" spans="1:5">
+      <c r="A36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" s="4" customFormat="1" spans="1:5">
+      <c r="A37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" s="4" customFormat="1" spans="1:5">
-      <c r="A33" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" s="4" customFormat="1" spans="1:5">
-      <c r="A34" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" s="4" customFormat="1" spans="1:5">
+      <c r="A38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" s="4" customFormat="1" spans="1:5">
+      <c r="A39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="1:5">
+      <c r="A40" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" s="4" customFormat="1" spans="1:5">
+      <c r="A41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" s="4" customFormat="1" spans="1:5">
+      <c r="A42" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="1:5">
+      <c r="A43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" s="4" customFormat="1" spans="1:5">
+      <c r="A44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" s="4" customFormat="1" spans="1:5">
+      <c r="A45" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" s="4" customFormat="1" spans="1:5">
+      <c r="A46" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" s="4" customFormat="1" spans="1:5">
-      <c r="A35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" s="4" customFormat="1" spans="1:5">
-      <c r="A36" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" s="4" customFormat="1" spans="1:5">
-      <c r="A37" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" s="4" customFormat="1" spans="1:5">
-      <c r="A38" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" s="4" customFormat="1" spans="1:5">
-      <c r="A39" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:5">
-      <c r="A40" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" s="4" customFormat="1" spans="1:5">
+      <c r="A47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" s="4" customFormat="1" spans="1:5">
+      <c r="A48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" s="4" customFormat="1" spans="1:5">
+      <c r="A49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" s="4" customFormat="1" spans="1:5">
+      <c r="A50" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" s="4" customFormat="1" spans="1:5">
+      <c r="A51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" s="4" customFormat="1" spans="1:5">
+      <c r="A52" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" s="4" customFormat="1" spans="1:5">
+      <c r="A53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="16"/>
-    </row>
-    <row r="41" s="4" customFormat="1" spans="1:5">
-      <c r="A41" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" s="4" customFormat="1" spans="1:5">
-      <c r="A42" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="1:5">
-      <c r="A43" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="1:5">
-      <c r="A44" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="1:5">
-      <c r="A45" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" s="4" customFormat="1" spans="1:5">
-      <c r="A46" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" s="4" customFormat="1" spans="1:5">
-      <c r="A47" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" s="4" customFormat="1" spans="1:5">
-      <c r="A48" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" s="4" customFormat="1" spans="1:5">
-      <c r="A49" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" s="4" customFormat="1" spans="1:5">
+      <c r="A54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="16"/>
-    </row>
-    <row r="50" s="4" customFormat="1" spans="1:5">
-      <c r="A50" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" s="4" customFormat="1" spans="1:5">
-      <c r="A51" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" s="4" customFormat="1" spans="1:5">
-      <c r="A52" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" s="4" customFormat="1" spans="1:5">
+      <c r="A55" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" s="4" customFormat="1" spans="1:5">
-      <c r="A53" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="D55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" s="4" customFormat="1" spans="1:5">
+      <c r="A56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" s="4" customFormat="1" spans="1:5">
-      <c r="A54" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="8" t="s">
+      <c r="D56" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" s="4" customFormat="1" spans="1:5">
+      <c r="A57" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="16"/>
-    </row>
-    <row r="55" s="4" customFormat="1" spans="1:5">
-      <c r="A55" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="D57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" s="4" customFormat="1" spans="1:5">
+      <c r="A58" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" s="4" customFormat="1" spans="1:5">
-      <c r="A56" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="8" t="s">
+      <c r="D58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" s="4" customFormat="1" spans="1:5">
+      <c r="A59" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" s="4" customFormat="1" spans="1:5">
-      <c r="A57" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="D59" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" s="4" customFormat="1" spans="1:5">
+      <c r="A60" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" s="4" customFormat="1" spans="1:5">
-      <c r="A58" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="59" s="4" customFormat="1" spans="1:5">
-      <c r="A59" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" s="4" customFormat="1" spans="1:5">
-      <c r="A60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="16"/>
+      <c r="D60" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="13"/>
     </row>
   </sheetData>
   <sortState ref="A17:E53">
@@ -3119,7 +3071,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -3130,24 +3082,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
